--- a/doc/空投/已知币种空投信息.xlsx
+++ b/doc/空投/已知币种空投信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12300"/>
+    <workbookView windowWidth="25068" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
